--- a/upload.xlsx
+++ b/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E113F28-7421-45A6-8713-1C79B532290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC53DE-59E6-4672-B5F9-32572E0A2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>Referências</t>
   </si>
   <si>
-    <t>SKU</t>
+    <t>Código Produto - SKU</t>
   </si>
   <si>
     <t>Status do Produto</t>
@@ -76,6 +76,21 @@
     <t>Cor</t>
   </si>
   <si>
+    <t>Imagens Vínculadas (Sim ou Não)</t>
+  </si>
+  <si>
+    <t>Multiplicador Padrão</t>
+  </si>
+  <si>
+    <t>Quantidade Mínima por Pedido</t>
+  </si>
+  <si>
+    <t>Quantidade Máxima por Pedido</t>
+  </si>
+  <si>
+    <t>Forma de Limite</t>
+  </si>
+  <si>
     <t>CAM1VER26TOY</t>
   </si>
   <si>
@@ -85,7 +100,7 @@
     <t>Camiseta oversized Kings Collab pixar Toy Story crew</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Não</t>
   </si>
   <si>
     <t>KINGS COLLAB PIXAR TOY STORY</t>
@@ -95,6 +110,12 @@
   </si>
   <si>
     <t> 1</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Limite por item da grade</t>
   </si>
   <si>
     <t>CAM1VER26TOY-006</t>
@@ -221,7 +242,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -592,9 +612,14 @@
     <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,19 +674,34 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -670,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -685,30 +725,45 @@
         <v>600230855</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2">
         <v>2.5</v>
       </c>
       <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>999999</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -717,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -732,30 +787,45 @@
         <v>600230861</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>2.5</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>999999</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -764,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -779,30 +849,45 @@
         <v>600230867</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>2.5</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>999999</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -811,7 +896,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -826,30 +911,45 @@
         <v>600230873</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>2.5</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>999999</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -858,7 +958,7 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -873,30 +973,45 @@
         <v>600230879</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O6">
         <v>2.5</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>999999</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -905,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -920,30 +1035,45 @@
         <v>600230885</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O7">
         <v>2.5</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>999999</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -952,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -967,30 +1097,45 @@
         <v>600230891</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>2.5</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>999999</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -999,7 +1144,7 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1014,30 +1159,45 @@
         <v>600230897</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O9">
         <v>2.5</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>999999</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1046,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1061,30 +1221,45 @@
         <v>600230903</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O10">
         <v>2.5</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>999999</v>
+      </c>
+      <c r="W10" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -1093,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1108,30 +1283,45 @@
         <v>600230909</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <v>2.5</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="S11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>999999</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1140,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1155,30 +1345,45 @@
         <v>600230915</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <v>2.5</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>999999</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -1187,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1202,30 +1407,45 @@
         <v>600230921</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O13">
         <v>2.5</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>999999</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -1234,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1249,30 +1469,45 @@
         <v>600230927</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O14">
         <v>2.5</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>999999</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1281,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1296,30 +1531,45 @@
         <v>600230933</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O15">
         <v>2.5</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>999999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1328,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1343,30 +1593,45 @@
         <v>600230939</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O16">
         <v>2.5</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>999999</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1375,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1390,16 +1655,31 @@
         <v>600230945</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O17">
         <v>2.5</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>999999</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
